--- a/manual-tests/shopping-test-suite.xlsx
+++ b/manual-tests/shopping-test-suite.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdulwahid/Desktop/Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdulwahid/Projects/shoppingElectronTest/manual-tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1774434-0A1F-794A-8A0E-FD05B29FF9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC127D3-0DCA-4342-92DE-863D39DBC73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="1" r:id="rId1"/>
@@ -268,9 +268,6 @@
     <t>Cart shows line 'Sticker Pack' qty=1, price £3.99; Subtotal £3.99; VAT £0.80; Shipping £4.95; Grand Total £9.74</t>
   </si>
   <si>
-    <t>Item line disappears; Subtotal £0.00; VAT £0.00; Shipping £0.00; Grand Total £0.00; 'Go to checkout' disabled</t>
-  </si>
-  <si>
     <t>One line for 'Blue Mug' with Qty=2; Subtotal £15.00; VAT £3.00; Shipping £4.95; Grand Total £22.95</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
   </si>
   <si>
     <t>P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> total updates to £11.97; Subtotal £11.97; VAT £2.39; Shipping £4.95; Grand Total £19.31</t>
   </si>
   <si>
     <t>CART-005</t>
@@ -391,6 +385,12 @@
   </si>
   <si>
     <t xml:space="preserve">Failed -&gt; allows line with qty 1.5 or abc which the item should not be added. No Validation message shows up. Question is this bug or feature? </t>
+  </si>
+  <si>
+    <t>Total updates to £11.97; Subtotal £11.97; VAT £2.39; Shipping £4.95; Grand Total £19.31</t>
+  </si>
+  <si>
+    <t>Item line disappears; Subtotal £0.00; VAT £0.00; Shipping £0.00; Grand Total £0.00</t>
   </si>
 </sst>
 </file>
@@ -765,7 +765,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -818,7 +818,7 @@
         <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -835,10 +835,10 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -855,10 +855,10 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -875,30 +875,30 @@
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -915,10 +915,10 @@
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -935,10 +935,10 @@
         <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -955,10 +955,10 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -969,16 +969,16 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -992,13 +992,13 @@
         <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1015,10 +1015,10 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1035,10 +1035,10 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1055,10 +1055,10 @@
         <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1075,10 +1075,10 @@
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1086,7 +1086,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
@@ -1095,10 +1095,10 @@
         <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1115,10 +1115,10 @@
         <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1135,10 +1135,10 @@
         <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1155,13 +1155,13 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1178,13 +1178,13 @@
         <v>75</v>
       </c>
       <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
         <v>118</v>
-      </c>
-      <c r="F20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1201,10 +1201,10 @@
         <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1221,13 +1221,13 @@
         <v>77</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1244,50 +1244,50 @@
         <v>78</v>
       </c>
       <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" t="s">
         <v>90</v>
-      </c>
-      <c r="F23" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
         <v>109</v>
       </c>
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>110</v>
       </c>
-      <c r="D24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" t="s">
-        <v>112</v>
-      </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
         <v>113</v>
       </c>
-      <c r="B25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" t="s">
-        <v>115</v>
-      </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/manual-tests/shopping-test-suite.xlsx
+++ b/manual-tests/shopping-test-suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdulwahid/Projects/shoppingElectronTest/manual-tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC127D3-0DCA-4342-92DE-863D39DBC73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928E3353-74D2-7249-BF1F-9B6F524A9FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -354,12 +354,6 @@
     <t>CHECK-001</t>
   </si>
   <si>
-    <t xml:space="preserve">1) CART-001 completed 2) User is on the checkout </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Users fills in Full Name, Email, Address, City and Postcode 2) Click Place order </t>
-  </si>
-  <si>
     <t xml:space="preserve">A message will say "Order places". Reference code will be generated </t>
   </si>
   <si>
@@ -391,6 +385,24 @@
   </si>
   <si>
     <t>Item line disappears; Subtotal £0.00; VAT £0.00; Shipping £0.00; Grand Total £0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevent empty order being placed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) CART-001 completed 2) User clicks checkout </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Cart empty 2) User clicks checkout </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Users fills in valid Full Name, Email, Address, City and Postcode 2) Click Place order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed -&gt; order is submitted, reference code is generated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The order should not be submitted, a warning message should appear and warn the user </t>
   </si>
 </sst>
 </file>
@@ -762,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="162" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -835,7 +847,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
         <v>90</v>
@@ -855,7 +867,7 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -1155,13 +1167,13 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
         <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1178,13 +1190,13 @@
         <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
         <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1255,16 +1267,16 @@
         <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" t="s">
         <v>108</v>
-      </c>
-      <c r="D24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" t="s">
-        <v>110</v>
       </c>
       <c r="F24" t="s">
         <v>90</v>
@@ -1272,22 +1284,45 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
         <v>111</v>
       </c>
-      <c r="B25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" t="s">
-        <v>113</v>
-      </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/manual-tests/shopping-test-suite.xlsx
+++ b/manual-tests/shopping-test-suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdulwahid/Projects/shoppingElectronTest/manual-tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928E3353-74D2-7249-BF1F-9B6F524A9FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1DB195-C2B4-6645-9A7D-683C11A7C0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -403,6 +403,21 @@
   </si>
   <si>
     <t xml:space="preserve">The order should not be submitted, a warning message should appear and warn the user </t>
+  </si>
+  <si>
+    <t>CHECK-004</t>
+  </si>
+  <si>
+    <t>CHECK-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Users fills no details 2)  Click Place Order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A message will say "Full name is required. A valid email is required. Address is required. City is required. Postcode is required." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check for required fields  </t>
   </si>
 </sst>
 </file>
@@ -774,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="162" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="162" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1304,7 +1319,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
         <v>119</v>
@@ -1323,6 +1338,26 @@
       </c>
       <c r="G26" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
